--- a/out/am-booking.xlsx
+++ b/out/am-booking.xlsx
@@ -14,42 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>AM Bookings</t>
   </si>
   <si>
-    <t>Week 6</t>
+    <t>Week 5</t>
   </si>
   <si>
-    <t>3/30/2018</t>
+    <t>2/26/2018</t>
   </si>
   <si>
     <t>Last, First1</t>
   </si>
   <si>
+    <t>2/27/2018</t>
+  </si>
+  <si>
     <t>Last, First2</t>
   </si>
   <si>
-    <t>3/31/2018</t>
+    <t>Last, First3</t>
+  </si>
+  <si>
+    <t>2/28/2018</t>
   </si>
   <si>
     <t>ALast, First</t>
   </si>
   <si>
-    <t>Last, First3</t>
-  </si>
-  <si>
     <t>ZLast, First</t>
   </si>
   <si>
-    <t>4/1/2018</t>
+    <t>3/1/2018</t>
   </si>
   <si>
     <t>Last, First_Allergy</t>
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>3/2/2018</t>
   </si>
 </sst>
 </file>
@@ -509,16 +515,20 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
@@ -530,14 +540,16 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -546,22 +558,22 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
@@ -571,9 +583,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
